--- a/z0bug_odoo/z0bug_odoo/testenv/account_fiscal_position.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/account_fiscal_position.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -49,13 +49,22 @@
     <t xml:space="preserve">Italia</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.fiscalpos_rc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse charge locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.fiscalpos_eu</t>
   </si>
   <si>
     <t xml:space="preserve">Regime Intra comunitario</t>
   </si>
   <si>
-    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_1</t>
+    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_2</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_xx</t>
@@ -67,27 +76,22 @@
     <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_3</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.fiscalpos_rc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse charge locale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.fiscalpos_sp</t>
   </si>
   <si>
     <t xml:space="preserve">Split Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -154,12 +158,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -289,19 +297,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16376" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,8 +397,8 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
